--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Selplg-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Selplg-Sell.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>91.63362566666667</v>
+        <v>2.543891666666667</v>
       </c>
       <c r="H2">
-        <v>274.900877</v>
+        <v>7.631675</v>
       </c>
       <c r="I2">
-        <v>0.538597858580931</v>
+        <v>0.0487891203504456</v>
       </c>
       <c r="J2">
-        <v>0.538597858580931</v>
+        <v>0.04878912035044559</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N2">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O2">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P2">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q2">
-        <v>6862.93481800371</v>
+        <v>0.2501858096694444</v>
       </c>
       <c r="R2">
-        <v>61766.41336203339</v>
+        <v>2.251672287025</v>
       </c>
       <c r="S2">
-        <v>0.3587397460570035</v>
+        <v>0.01375153654961914</v>
       </c>
       <c r="T2">
-        <v>0.3587397460570036</v>
+        <v>0.01375153654961914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>91.63362566666667</v>
+        <v>2.543891666666667</v>
       </c>
       <c r="H3">
-        <v>274.900877</v>
+        <v>7.631675</v>
       </c>
       <c r="I3">
-        <v>0.538597858580931</v>
+        <v>0.0487891203504456</v>
       </c>
       <c r="J3">
-        <v>0.538597858580931</v>
+        <v>0.04878912035044559</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N3">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O3">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P3">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q3">
-        <v>3440.807761916496</v>
+        <v>0.6374492217972223</v>
       </c>
       <c r="R3">
-        <v>30967.26985724847</v>
+        <v>5.737042996175</v>
       </c>
       <c r="S3">
-        <v>0.1798581125239274</v>
+        <v>0.03503758380082646</v>
       </c>
       <c r="T3">
-        <v>0.1798581125239275</v>
+        <v>0.03503758380082646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>6.267225</v>
       </c>
       <c r="I4">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="J4">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N4">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O4">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P4">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q4">
-        <v>156.4620569208417</v>
+        <v>0.2054556517416666</v>
       </c>
       <c r="R4">
-        <v>1408.158512287575</v>
+        <v>1.849100865675</v>
       </c>
       <c r="S4">
-        <v>0.008178594151891715</v>
+        <v>0.01129293027443999</v>
       </c>
       <c r="T4">
-        <v>0.008178594151891717</v>
+        <v>0.01129293027443999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>6.267225</v>
       </c>
       <c r="I5">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="J5">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N5">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O5">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P5">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q5">
-        <v>78.44397100878332</v>
+        <v>0.5234811098583333</v>
       </c>
       <c r="R5">
-        <v>705.9957390790499</v>
+        <v>4.711329988725</v>
       </c>
       <c r="S5">
-        <v>0.004100428021780269</v>
+        <v>0.02877329303673631</v>
       </c>
       <c r="T5">
-        <v>0.00410042802178027</v>
+        <v>0.02877329303673632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.910122666666667</v>
+        <v>1.800112666666666</v>
       </c>
       <c r="H6">
-        <v>5.730368</v>
+        <v>5.400338</v>
       </c>
       <c r="I6">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="J6">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N6">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O6">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P6">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q6">
-        <v>143.0593546894151</v>
+        <v>0.1770368805037777</v>
       </c>
       <c r="R6">
-        <v>1287.534192204736</v>
+        <v>1.593331924534</v>
       </c>
       <c r="S6">
-        <v>0.007478007285997779</v>
+        <v>0.009730884162034823</v>
       </c>
       <c r="T6">
-        <v>0.007478007285997779</v>
+        <v>0.009730884162034825</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.910122666666667</v>
+        <v>1.800112666666666</v>
       </c>
       <c r="H7">
-        <v>5.730368</v>
+        <v>5.400338</v>
       </c>
       <c r="I7">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="J7">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N7">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O7">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P7">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q7">
-        <v>71.7243790133049</v>
+        <v>0.4510728320508889</v>
       </c>
       <c r="R7">
-        <v>645.5194111197439</v>
+        <v>4.059655488458</v>
       </c>
       <c r="S7">
-        <v>0.003749181100457214</v>
+        <v>0.02479335076870904</v>
       </c>
       <c r="T7">
-        <v>0.003749181100457214</v>
+        <v>0.02479335076870904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.50083799999999</v>
+        <v>45.70747266666666</v>
       </c>
       <c r="H8">
-        <v>223.502514</v>
+        <v>137.122418</v>
       </c>
       <c r="I8">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076343</v>
       </c>
       <c r="J8">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076342</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N8">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O8">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P8">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q8">
-        <v>5579.768249491474</v>
+        <v>4.495223285997111</v>
       </c>
       <c r="R8">
-        <v>50217.91424542327</v>
+        <v>40.45700957397399</v>
       </c>
       <c r="S8">
-        <v>0.2916659851742192</v>
+        <v>0.2470812689087458</v>
       </c>
       <c r="T8">
-        <v>0.2916659851742192</v>
+        <v>0.2470812689087459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.50083799999999</v>
+        <v>45.70747266666666</v>
       </c>
       <c r="H9">
-        <v>223.502514</v>
+        <v>137.122418</v>
       </c>
       <c r="I9">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076343</v>
       </c>
       <c r="J9">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076342</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N9">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O9">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P9">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q9">
-        <v>2797.478106914334</v>
+        <v>11.45339373663755</v>
       </c>
       <c r="R9">
-        <v>25177.30296222901</v>
+        <v>103.080543629738</v>
       </c>
       <c r="S9">
-        <v>0.1462299456847228</v>
+        <v>0.6295391524988885</v>
       </c>
       <c r="T9">
-        <v>0.1462299456847228</v>
+        <v>0.6295391524988884</v>
       </c>
     </row>
   </sheetData>
